--- a/RDdata/SADN_Result.xlsx
+++ b/RDdata/SADN_Result.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937410FA-6D98-45C1-8BB1-C34C420C7867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402258EB-BF2D-43EF-9A72-9246C855AFBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>Lambda：L=R+lambda*D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示使用珠海的V100进行训练的结果，这部分的结果性能更好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,10 +146,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,7 +433,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E22"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,36 +442,36 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -537,7 +533,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1">
@@ -596,7 +592,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1E-3</v>
       </c>
       <c r="C4" s="1">
@@ -655,7 +651,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C5" s="1">
@@ -714,7 +710,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C6" s="1">
@@ -773,7 +769,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C7" s="1">
@@ -832,36 +828,36 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="3" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="W9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -920,7 +916,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="1">
@@ -979,7 +975,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1E-3</v>
       </c>
       <c r="C12" s="1">
@@ -1038,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C13" s="1">
@@ -1097,7 +1093,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C14" s="1">
@@ -1156,7 +1152,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C15" s="1">
@@ -1229,87 +1225,87 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C18">
-        <f>AVERAGE(C3,G3,K3,O3,S3,W3,C11,G11,K11,O11,S11,W11)</f>
+        <f t="shared" ref="C18:E22" si="0">AVERAGE(C3,G3,K3,O3,S3,W3,C11,G11,K11,O11,S11,W11)</f>
         <v>1.859166666666667E-2</v>
       </c>
       <c r="D18">
-        <f>AVERAGE(D3,H3,L3,P3,T3,X3,D11,H11,L11,P11,T11,X11)</f>
+        <f t="shared" si="0"/>
         <v>38.301071749999998</v>
       </c>
       <c r="E18">
-        <f>AVERAGE(E3,I3,M3,Q3,U3,Y3,E11,I11,M11,Q11,U11,Y11)</f>
+        <f t="shared" si="0"/>
         <v>0.97155575000000016</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>1E-3</v>
       </c>
       <c r="C19">
-        <f>AVERAGE(C4,G4,K4,O4,S4,W4,C12,G12,K12,O12,S12,W12)</f>
+        <f t="shared" si="0"/>
         <v>1.0041666666666669E-2</v>
       </c>
       <c r="D19">
-        <f>AVERAGE(D4,H4,L4,P4,T4,X4,D12,H12,L12,P12,T12,X12)</f>
+        <f t="shared" si="0"/>
         <v>36.617196499999999</v>
       </c>
       <c r="E19">
-        <f>AVERAGE(E4,I4,M4,Q4,U4,Y4,E12,I12,M12,Q12,U12,Y12)</f>
+        <f t="shared" si="0"/>
         <v>0.96213958333333327</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C20">
-        <f>AVERAGE(C5,G5,K5,O5,S5,W5,C13,G13,K13,O13,S13,W13)</f>
+        <f t="shared" si="0"/>
         <v>8.1250000000000003E-3</v>
       </c>
       <c r="D20">
-        <f>AVERAGE(D5,H5,L5,P5,T5,X5,D13,H13,L13,P13,T13,X13)</f>
+        <f t="shared" si="0"/>
         <v>35.831081083333338</v>
       </c>
       <c r="E20">
-        <f>AVERAGE(E5,I5,M5,Q5,U5,Y5,E13,I13,M13,Q13,U13,Y13)</f>
+        <f t="shared" si="0"/>
         <v>0.95615624999999993</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C21">
-        <f>AVERAGE(C6,G6,K6,O6,S6,W6,C14,G14,K14,O14,S14,W14)</f>
+        <f t="shared" si="0"/>
         <v>1.5333333333333334E-3</v>
       </c>
       <c r="D21">
-        <f>AVERAGE(D6,H6,L6,P6,T6,X6,D14,H14,L14,P14,T14,X14)</f>
+        <f t="shared" si="0"/>
         <v>31.452009916666665</v>
       </c>
       <c r="E21">
-        <f>AVERAGE(E6,I6,M6,Q6,U6,Y6,E14,I14,M14,Q14,U14,Y14)</f>
+        <f t="shared" si="0"/>
         <v>0.9001169166666666</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C22">
-        <f>AVERAGE(C7,G7,K7,O7,S7,W7,C15,G15,K15,O15,S15,W15)</f>
+        <f t="shared" si="0"/>
         <v>1.2833333333333334E-3</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(D7,H7,L7,P7,T7,X7,D15,H15,L15,P15,T15,X15)</f>
+        <f t="shared" si="0"/>
         <v>29.972092083333337</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E7,I7,M7,Q7,U7,Y7,E15,I15,M15,Q15,U15,Y15)</f>
+        <f t="shared" si="0"/>
         <v>0.84489325000000015</v>
       </c>
     </row>
@@ -1373,13 +1369,8 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N36" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O36" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
